--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>№</t>
   </si>
@@ -157,9 +157,15 @@
     <t>1685</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>1686</t>
   </si>
   <si>
+    <t>1-</t>
+  </si>
+  <si>
     <t>1687</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
   </si>
   <si>
     <t>1689</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
   </si>
   <si>
     <t>1690</t>
@@ -685,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -741,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -819,18 +828,24 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>39</v>
@@ -841,26 +856,29 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>№</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>417223</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
@@ -116,9 +119,6 @@
   </si>
   <si>
     <t>321540</t>
-  </si>
-  <si>
-    <t>416762</t>
   </si>
   <si>
     <t>417133</t>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -793,6 +793,9 @@
       <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
@@ -801,6 +804,9 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
@@ -852,6 +858,9 @@
       </c>
       <c r="H11" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18">

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>№</t>
   </si>
@@ -31,21 +31,24 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Леонтьев Дмитрий</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Провалинский Владимир</t>
+  </si>
+  <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Провалинский Владимир</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -85,21 +85,24 @@
     <t>321426</t>
   </si>
   <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
-    <t>328905</t>
+    <t>369588</t>
   </si>
   <si>
     <t>321423</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>415632</t>
   </si>
   <si>
+    <t>371742</t>
+  </si>
+  <si>
     <t>415486</t>
   </si>
   <si>
@@ -112,9 +115,6 @@
     <t>416762</t>
   </si>
   <si>
-    <t>371742</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
@@ -142,6 +142,9 @@
     <t>1+, 1-</t>
   </si>
   <si>
+    <t>1-</t>
+  </si>
+  <si>
     <t>1682</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
     <t>1684</t>
   </si>
   <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
     <t>2-</t>
   </si>
   <si>
@@ -163,9 +169,6 @@
     <t>1686</t>
   </si>
   <si>
-    <t>1-</t>
-  </si>
-  <si>
     <t>1687</t>
   </si>
   <si>
@@ -176,9 +179,6 @@
   </si>
   <si>
     <t>1689</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
   </si>
   <si>
     <t>1690</t>
@@ -685,26 +685,26 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -790,27 +790,36 @@
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
@@ -818,71 +827,80 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
+      <c r="E8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>46</v>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>48</v>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>51</v>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
+      <c r="G13" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18">

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>№</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>1685</t>
+  </si>
+  <si>
+    <t>4-</t>
   </si>
   <si>
     <t>3-</t>
@@ -685,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -846,13 +849,16 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
@@ -863,7 +869,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>39</v>
@@ -880,7 +886,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
@@ -889,15 +895,18 @@
         <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>45</v>
@@ -905,7 +914,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -31,15 +31,21 @@
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьев Дмитрий</t>
+    <t>Леонтьв Дмитрий</t>
   </si>
   <si>
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Казаков Максим</t>
+  </si>
+  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +64,9 @@
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Казаков Максим</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,9 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321540</t>
+  </si>
+  <si>
     <t>369588</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,15 +118,9 @@
     <t>417223</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>415633</t>
   </si>
   <si>
-    <t>321540</t>
-  </si>
-  <si>
     <t>417133</t>
   </si>
   <si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>1682</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
   </si>
   <si>
     <t>1683</t>
@@ -688,17 +691,17 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -706,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>2</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -750,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -796,16 +799,16 @@
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -816,13 +819,16 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
@@ -830,63 +836,63 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
@@ -894,27 +900,27 @@
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>53</v>
+      <c r="H12" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>39</v>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -37,15 +37,15 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,15 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
     <t>369588</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,13 +112,13 @@
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>352865</t>
   </si>
   <si>
     <t>417223</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>417133</t>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>3</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -799,7 +799,7 @@
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -808,7 +808,7 @@
       <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -822,7 +822,7 @@
       <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -880,13 +880,13 @@
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -900,7 +900,7 @@
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
       <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>46</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -52,15 +52,15 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -106,13 +106,13 @@
     <t>415632</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
     <t>415486</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>352865</t>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -768,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -802,11 +802,11 @@
       <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>39</v>
@@ -883,11 +883,11 @@
       <c r="I11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18">

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -40,27 +40,27 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -94,25 +94,25 @@
     <t>416762</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
     <t>415632</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>415633</t>
   </si>
   <si>
     <t>371742</t>
-  </si>
-  <si>
-    <t>415486</t>
   </si>
   <si>
     <t>352865</t>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -799,17 +799,17 @@
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -822,7 +822,7 @@
       <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -880,14 +880,14 @@
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -900,7 +900,7 @@
       <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
       <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -28,33 +28,33 @@
     <t>Вахитова Екатерина</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -82,31 +82,31 @@
     <t>262625</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
     <t>416762</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321540</t>
   </si>
   <si>
     <t>321423</t>
-  </si>
-  <si>
-    <t>415632</t>
-  </si>
-  <si>
-    <t>415486</t>
   </si>
   <si>
     <t>415633</t>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -796,13 +796,13 @@
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>39</v>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -819,10 +819,10 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -841,10 +841,10 @@
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -855,10 +855,10 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -869,7 +869,7 @@
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -880,10 +880,10 @@
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -897,10 +897,10 @@
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -911,10 +911,10 @@
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>46</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>416762</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>371742</t>
   </si>
   <si>
-    <t>352865</t>
-  </si>
-  <si>
     <t>417223</t>
   </si>
   <si>
@@ -151,6 +151,9 @@
     <t>1+, 5-</t>
   </si>
   <si>
+    <t>2-</t>
+  </si>
+  <si>
     <t>1683</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>2-</t>
   </si>
   <si>
     <t>1685</t>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>2</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -805,10 +805,10 @@
       <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -825,10 +825,13 @@
       <c r="G6" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>40</v>
@@ -836,16 +839,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -861,6 +864,9 @@
       <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="2" t="s">
@@ -872,6 +878,9 @@
       <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="J10" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="2" t="s">
@@ -886,7 +895,7 @@
       <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -912,10 +921,13 @@
         <v>39</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:18">

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -31,18 +31,18 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>Казаков Максим</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>430719</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>328905</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -109,12 +109,12 @@
     <t>321540</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>321423</t>
   </si>
   <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>371742</t>
   </si>
   <si>
@@ -166,10 +166,10 @@
     <t>1685</t>
   </si>
   <si>
+    <t>3-</t>
+  </si>
+  <si>
     <t>4-</t>
-  </si>
-  <si>
-    <t>3-</t>
   </si>
   <si>
     <t>1686</t>
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -796,16 +796,16 @@
       <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -819,11 +819,11 @@
       <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>44</v>
@@ -844,11 +844,11 @@
       <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -858,10 +858,10 @@
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -875,7 +875,7 @@
       <c r="B10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -889,13 +889,13 @@
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -906,11 +906,11 @@
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -920,10 +920,10 @@
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="3" t="s">

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -34,15 +34,18 @@
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -88,15 +88,18 @@
     <t>369588</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>328905</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>321540</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>321423</t>
@@ -694,28 +694,28 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -799,13 +799,13 @@
       <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -825,7 +825,7 @@
       <c r="H6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -864,7 +864,7 @@
       <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -878,7 +878,7 @@
       <c r="E10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -892,10 +892,10 @@
       <c r="E11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -926,7 +926,7 @@
       <c r="H13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -25,27 +25,27 @@
     <t>Шестаков Вячеслав</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Вахитова Екатерина</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
+    <t>Леонтьв Дмитрий</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
-  </si>
-  <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -79,27 +79,27 @@
     <t>263178</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>262625</t>
   </si>
   <si>
-    <t>430719</t>
-  </si>
-  <si>
     <t>369588</t>
   </si>
   <si>
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>328905</t>
-  </si>
-  <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -131,63 +131,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>1681</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>1682</t>
-  </si>
-  <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
-    <t>2-</t>
-  </si>
-  <si>
-    <t>1683</t>
-  </si>
-  <si>
-    <t>1684</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>1685</t>
-  </si>
-  <si>
-    <t>3-</t>
-  </si>
-  <si>
-    <t>4-</t>
-  </si>
-  <si>
-    <t>1686</t>
-  </si>
-  <si>
-    <t>1687</t>
-  </si>
-  <si>
-    <t>1688</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>1689</t>
-  </si>
-  <si>
-    <t>1690</t>
   </si>
 </sst>
 </file>
@@ -219,24 +162,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,14 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -682,7 +611,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -691,25 +620,25 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -747,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -756,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -765,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -777,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -787,159 +716,10 @@
       </c>
       <c r="R4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R14"/>
+  <autoFilter ref="A1:R4"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -958,16 +738,6 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$14</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +131,66 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>1681</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>1682</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>1683</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>1684</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>1686</t>
+  </si>
+  <si>
+    <t>1687</t>
+  </si>
+  <si>
+    <t>1688</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>1689</t>
+  </si>
+  <si>
+    <t>1690</t>
   </si>
 </sst>
 </file>
@@ -162,12 +222,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,12 +254,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -611,7 +685,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -620,16 +694,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -638,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -676,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -685,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -694,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -706,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -718,8 +792,157 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R4"/>
+  <autoFilter ref="A1:R14"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -738,6 +961,16 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
+    <hyperlink ref="A5" r:id="rId18"/>
+    <hyperlink ref="A6" r:id="rId19"/>
+    <hyperlink ref="A7" r:id="rId20"/>
+    <hyperlink ref="A8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.10.20.xlsx
+++ b/groups/22-23/tasks_results/22.10.20.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$U$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>№</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Вахитова Екатерина</t>
+    <t>Екатерина Юрьевна</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
@@ -40,7 +40,7 @@
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
+    <t>Леонтьев Дмитрий</t>
   </si>
   <si>
     <t>Коляда Вадим</t>
@@ -73,7 +73,16 @@
     <t>Глушков Артём</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Грачёв Ромен</t>
+  </si>
+  <si>
+    <t>Костюнин Егор</t>
+  </si>
+  <si>
+    <t>Урцегов Артём</t>
+  </si>
+  <si>
+    <t>Acmp</t>
   </si>
   <si>
     <t>263178</t>
@@ -125,6 +134,57 @@
   </si>
   <si>
     <t>418688</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>slavashestakov2005</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
+    <t>Vadlm</t>
+  </si>
+  <si>
+    <t>Sasha_Medvedev</t>
+  </si>
+  <si>
+    <t>AndreBc</t>
+  </si>
+  <si>
+    <t>degterevvva</t>
+  </si>
+  <si>
+    <t>044s4</t>
+  </si>
+  <si>
+    <t>ABRAMOVICHH</t>
+  </si>
+  <si>
+    <t>art3m_glushkov</t>
+  </si>
+  <si>
+    <t>Romafka</t>
+  </si>
+  <si>
+    <t>kjuby</t>
+  </si>
+  <si>
+    <t>AbramovichLinkoln</t>
   </si>
   <si>
     <t>+</t>
@@ -556,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -565,10 +625,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,326 +683,430 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>70</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R14"/>
+  <autoFilter ref="A1:U15"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -961,16 +1125,39 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="S2" r:id="rId18"/>
+    <hyperlink ref="T2" r:id="rId19"/>
+    <hyperlink ref="U2" r:id="rId20"/>
+    <hyperlink ref="B3" r:id="rId21"/>
+    <hyperlink ref="C3" r:id="rId22"/>
+    <hyperlink ref="D3" r:id="rId23"/>
+    <hyperlink ref="E3" r:id="rId24"/>
+    <hyperlink ref="F3" r:id="rId25"/>
+    <hyperlink ref="G3" r:id="rId26"/>
+    <hyperlink ref="H3" r:id="rId27"/>
+    <hyperlink ref="I3" r:id="rId28"/>
+    <hyperlink ref="J3" r:id="rId29"/>
+    <hyperlink ref="K3" r:id="rId30"/>
+    <hyperlink ref="L3" r:id="rId31"/>
+    <hyperlink ref="M3" r:id="rId32"/>
+    <hyperlink ref="N3" r:id="rId33"/>
+    <hyperlink ref="O3" r:id="rId34"/>
+    <hyperlink ref="P3" r:id="rId35"/>
+    <hyperlink ref="Q3" r:id="rId36"/>
+    <hyperlink ref="R3" r:id="rId37"/>
+    <hyperlink ref="S3" r:id="rId38"/>
+    <hyperlink ref="T3" r:id="rId39"/>
+    <hyperlink ref="U3" r:id="rId40"/>
+    <hyperlink ref="A6" r:id="rId41"/>
+    <hyperlink ref="A7" r:id="rId42"/>
+    <hyperlink ref="A8" r:id="rId43"/>
+    <hyperlink ref="A9" r:id="rId44"/>
+    <hyperlink ref="A10" r:id="rId45"/>
+    <hyperlink ref="A11" r:id="rId46"/>
+    <hyperlink ref="A12" r:id="rId47"/>
+    <hyperlink ref="A13" r:id="rId48"/>
+    <hyperlink ref="A14" r:id="rId49"/>
+    <hyperlink ref="A15" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
